--- a/report/reliability/comb/Instituto de Geografia, Desenvolvimento e Meio Ambiente - IGDEMA-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Geografia, Desenvolvimento e Meio Ambiente - IGDEMA-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8218849186172812</v>
+        <v>0.7860023021284173</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8258424297375663</v>
+        <v>0.8027007163133925</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.928128360709963</v>
+        <v>0.9258739937867055</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2832366174975694</v>
+        <v>0.23836048378758584</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.741926684514058</v>
+        <v>4.0684421216065445</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03602651833750015</v>
+        <v>0.04027183146001174</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.2961309523809526</v>
+        <v>1.723901098901099</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8266275105061173</v>
+        <v>0.6758377799691491</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.28224686548769395</v>
+        <v>0.18420086218671625</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7934122453297743</v>
+        <v>0.7848424592458166</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7978968309487502</v>
+        <v>0.7970330386006748</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9048921742387371</v>
+        <v>0.9208249476787795</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.26411402219133684</v>
+        <v>0.2465581948394189</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.947967934864084</v>
+        <v>3.926910237536447</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.041984615550108274</v>
+        <v>0.04147000180767846</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05412585612969997</v>
+        <v>0.0769900312804911</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2765267203476504</v>
+        <v>0.24822143638497463</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7986988847583644</v>
+        <v>0.7595002819630242</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8035920735992804</v>
+        <v>0.7795960076271049</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9153340771957023</v>
+        <v>0.9135234238303545</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2711101836436347</v>
+        <v>0.22765623462583792</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>4.0914442116748315</v>
+        <v>3.537122895251958</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.041131522228280516</v>
+        <v>0.04511968272622786</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05716298706340254</v>
+        <v>0.07946654525531284</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.28154910969029995</v>
+        <v>0.17625248244565533</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7984724210919505</v>
+        <v>0.7624480339309236</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8006540082758817</v>
+        <v>0.7809696353678108</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9064920037062398</v>
+        <v>0.9109339271541255</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2674677565129305</v>
+        <v>0.22906809155646843</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>4.016403848159305</v>
+        <v>3.5655770225250234</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.040805644815456524</v>
+        <v>0.04478729478284627</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.054677168549310914</v>
+        <v>0.07739803007964711</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.28154910969029995</v>
+        <v>0.18338702520735062</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8057462794224869</v>
+        <v>0.7800359640359639</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8099129952229089</v>
+        <v>0.7891640252228014</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9216192026150666</v>
+        <v>0.9142093018736079</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2791965796073019</v>
+        <v>0.23775760491059972</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.260748893237955</v>
+        <v>3.743023580566611</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.039513281228343466</v>
+        <v>0.042133926052264584</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05974194407531686</v>
+        <v>0.06569467958220238</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2936539891766421</v>
+        <v>0.18420086218671625</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8096671702047511</v>
+        <v>0.7597132966050878</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8142613660363784</v>
+        <v>0.7781580719785365</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.899479639458455</v>
+        <v>0.9027297908640763</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.28496719352975036</v>
+        <v>0.22619156653442501</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.383909521999922</v>
+        <v>3.5077141589900407</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03840342126432651</v>
+        <v>0.044965007300749385</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05332321808282954</v>
+        <v>0.06656322780609746</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.28294462128508796</v>
+        <v>0.18420086218671625</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.808256746563217</v>
+        <v>0.7589306828190141</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8125252861086731</v>
+        <v>0.7774385485719003</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8999346012332524</v>
+        <v>0.9066768585937972</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2826423496905642</v>
+        <v>0.2254637107570074</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.334052679657203</v>
+        <v>3.4931410789395323</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03868711049080986</v>
+        <v>0.045153518753129666</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.055638190922033294</v>
+        <v>0.07015779859120161</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.28294462128508796</v>
+        <v>0.1840817187281868</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8312878200155159</v>
+        <v>0.7883448669132149</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8374988068180806</v>
+        <v>0.8140346363234642</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.921629836608697</v>
+        <v>0.9262124586498627</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.31904571429421064</v>
+        <v>0.2672805220237182</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>5.153800968590453</v>
+        <v>4.3773454380428545</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03432617453106668</v>
+        <v>0.040761251779524284</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04837969987052452</v>
+        <v>0.07012936027884009</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3029087294012497</v>
+        <v>0.2797356708163692</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8273212690986949</v>
+        <v>0.797243601392934</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8276996804261472</v>
+        <v>0.8108525079602312</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9188923528258464</v>
+        <v>0.916747636305328</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.30396573963684237</v>
+        <v>0.2632106111695353</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.803819763499461</v>
+        <v>4.286879509825842</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.0344931072760116</v>
+        <v>0.0372492741087696</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.055915923560192295</v>
+        <v>0.0694763698701693</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.298590169332151</v>
+        <v>0.2797356708163692</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8167006559422892</v>
+        <v>0.7930159603381993</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8207129350523001</v>
+        <v>0.800753678491447</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9255838228728023</v>
+        <v>0.9211986287399418</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2938599878250676</v>
+        <v>0.2508855111376903</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.577647223416317</v>
+        <v>4.018913234777454</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03732135556693094</v>
+        <v>0.0371748697763041</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05864607512067694</v>
+        <v>0.07737295824327015</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.28154910969029995</v>
+        <v>0.27207109270008706</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8114479442099242</v>
+        <v>0.771498969249427</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8157588731514628</v>
+        <v>0.7917013655778377</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9262600616470861</v>
+        <v>0.9225928549034177</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.28699536981013796</v>
+        <v>0.24054476312897957</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.427669799382468</v>
+        <v>3.8007995960899277</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03841572943007107</v>
+        <v>0.043101460697010076</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06055697758290338</v>
+        <v>0.0789899508597388</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.28154910969029995</v>
+        <v>0.17625248244565533</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7987059222423146</v>
+        <v>0.7689445264626772</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8037923778274024</v>
+        <v>0.7912930147933587</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9094061291984876</v>
+        <v>0.9225111788414453</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2713611391671209</v>
+        <v>0.24009302020827336</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>4.096641959813017</v>
+        <v>3.7914064735777653</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.041094433432953055</v>
+        <v>0.04368501015498933</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0596404519514771</v>
+        <v>0.079790712970659</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2199161524222988</v>
+        <v>0.17625248244565533</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8009942506376174</v>
+        <v>0.7507342657342657</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8059714845110314</v>
+        <v>0.773818874833448</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9085963465501845</v>
+        <v>0.9052973037169639</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.274113374061935</v>
+        <v>0.22185222650522535</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>4.153881621368453</v>
+        <v>3.4212354115032126</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.040465138896500136</v>
+        <v>0.04749917228105694</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05844824388819337</v>
+        <v>0.08015582632351431</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2765267203476504</v>
+        <v>0.17548469639311254</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7508528469300596</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7740944053427087</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9064574536304291</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2221242318414368</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.426627864250303</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.047310063158283996</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.07882897899621516</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.17548469639311254</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>56.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.7306103160401458</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7352925295634067</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7414603097818596</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6519853319829805</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.2142857142857144</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.4233671437735331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6809436806616473</v>
+        <v>0.43513957462432784</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6805386163688589</v>
+        <v>0.4685541882585631</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6633660693742514</v>
+        <v>0.4349588994493313</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.588279809188181</v>
+        <v>0.4106999086563519</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8035714285714284</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.469936830518334</v>
+        <v>0.259870097418821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.698324483646241</v>
+        <v>0.6456354789447996</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7090452682367259</v>
+        <v>0.644657338143289</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7116402897243894</v>
+        <v>0.6276153631194652</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6291636478440003</v>
+        <v>0.5350419464706089</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3392857142857144</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1797809614005121</v>
+        <v>1.4233671437735331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6115805449557762</v>
+        <v>0.6258093291929501</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6172522234417844</v>
+        <v>0.6315035461629223</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5804618804773476</v>
+        <v>0.6200560410250506</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5102319626413374</v>
+        <v>0.5067683079621322</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7857142857142856</v>
+        <v>3.8035714285714284</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.410535497465551</v>
+        <v>1.469936830518334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5654145449061126</v>
+        <v>0.5321889378060555</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5720897874483701</v>
+        <v>0.5505462985898141</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5824691974209245</v>
+        <v>0.5578624184324085</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4642050019563056</v>
+        <v>0.500926800615088</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.5357142857142857</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.3206649250115807</v>
+        <v>0.3705909636481472</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5838068172134491</v>
+        <v>0.641951321594017</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5902846645434198</v>
+        <v>0.6583031537898664</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6008521174669206</v>
+        <v>0.6786549147540454</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.48080059521337615</v>
+        <v>0.5397682852946862</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.5178571428571429</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3749852419514965</v>
+        <v>1.3206649250115807</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.30654120700476023</v>
+        <v>0.6488147057557345</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3053817675636964</v>
+        <v>0.6650843391069818</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.25965807798654755</v>
+        <v>0.6801947502347843</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.17810028671834913</v>
+        <v>0.5432033418201018</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.5892857142857144</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3318037763504422</v>
+        <v>1.3749852419514965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4345084719610899</v>
+        <v>0.22852594078549088</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4234018602953079</v>
+        <v>0.27549129695721447</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.38210891449223083</v>
+        <v>0.2266949707397656</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.28526139341489</v>
+        <v>0.19446519190169345</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.5357142857142856</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6510523995240205</v>
+        <v>0.31209389196617965</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5115607886868699</v>
+        <v>0.2928189383658011</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5024922959921314</v>
+        <v>0.3134092754670137</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.44415554979011207</v>
+        <v>0.2856216370001153</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.38557878888064634</v>
+        <v>0.14612350515097927</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4464285714285714</v>
+        <v>2.5892857142857144</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5126093391841176</v>
+        <v>1.3318037763504422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5613097000523457</v>
+        <v>0.4245006456460281</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5562167135125039</v>
+        <v>0.4282380505637231</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4934420183223757</v>
+        <v>0.38994255532275923</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.444481647144142</v>
+        <v>0.2528033156870844</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9464285714285714</v>
+        <v>2.5357142857142856</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4944703270528854</v>
+        <v>1.6510523995240205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6811100847449335</v>
+        <v>0.5619315364990451</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6785745683630566</v>
+        <v>0.524579291150494</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.665212040613248</v>
+        <v>0.4686654429827225</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5866916556750201</v>
+        <v>0.4262492532332684</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0535714285714284</v>
+        <v>1.4464285714285714</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.4944703270528854</v>
+        <v>1.5126093391841176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>56.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6593207330863577</v>
+        <v>0.5791373882080562</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6570348095182745</v>
+        <v>0.5287880266665774</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.645527445338997</v>
+        <v>0.4713074957762729</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5716097142317497</v>
+        <v>0.44846173448104737</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.9464285714285714</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4944703270528854</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>56.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.710043555031567</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6987313125061186</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6892572867795951</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.6084956931620039</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.0535714285714284</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.4944703270528854</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>56.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.7125104254696057</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.696197131079905</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.6856393437049385</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.6234352095655885</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.7857142857142858</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3445416348303267</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.32142857142857145</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.16071428571428573</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.19642857142857142</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.44642857142857145</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.05357142857142857</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03571428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.39285714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.10714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.05357142857142857</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.017857142857142856</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.30357142857142855</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.10714285714285714</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4642857142857143</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8392857142857143</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.017857142857142856</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.017857142857142856</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.03571428571428571</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.07142857142857142</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.017857142857142856</v>
+        <v>0.44642857142857145</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8392857142857143</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.05357142857142857</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.017857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03571428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.10714285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16071428571428573</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="D49" t="n" s="111">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="E49" t="n" s="112">
         <v>0.03571428571428571</v>
       </c>
-      <c r="E49" t="n" s="112">
-        <v>0.42857142857142855</v>
-      </c>
       <c r="F49" t="n" s="113">
-        <v>0.26785714285714285</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.10714285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.17857142857142858</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.30357142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.08928571428571429</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.125</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.19642857142857142</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.42857142857142855</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.16071428571428573</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.10714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,22 +5183,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.30357142857142855</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.08928571428571429</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.08928571428571429</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.39285714285714285</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.125</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="G52" t="n" s="114">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.21428571428571427</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="C53" t="n" s="110">
         <v>0.17857142857142858</v>
       </c>
       <c r="D53" t="n" s="111">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="E53" t="n" s="112">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="F53" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G53" t="n" s="114">
         <v>0.19642857142857142</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.16071428571428573</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.25</v>
-      </c>
-      <c r="G53" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="E54" t="n" s="112">
         <v>0.25</v>
       </c>
-      <c r="C54" t="n" s="110">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D54" t="n" s="111">
-        <v>0.30357142857142855</v>
-      </c>
-      <c r="E54" t="n" s="112">
-        <v>0.17857142857142858</v>
-      </c>
       <c r="F54" t="n" s="113">
-        <v>0.125</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.25</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8896375818486371</v>
+        <v>0.871864186851211</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8944132749452338</v>
+        <v>0.9705461405079497</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.9060695314264658</v>
+        <v>0.9672371235009012</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6792529815337357</v>
+        <v>0.9165540330927762</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.47088755221185</v>
+        <v>32.95140797320299</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.024859132347696693</v>
+        <v>0.008009731091653429</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5357142857142856</v>
+        <v>0.40476190476190477</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.1922367933546472</v>
+        <v>1.0004328067720494</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6740637719035563</v>
+        <v>0.9353645945807626</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8253319983136594</v>
+        <v>0.9717566016073478</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8343018655075348</v>
+        <v>0.972162349189543</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7840222181438483</v>
+        <v>0.945832591774573</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6266367759492183</v>
+        <v>0.9458325917745729</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.035070962404068</v>
+        <v>34.92257144142197</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04102994292951231</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.009034445981622103</v>
-      </c>
+        <v>0.007490821563618821</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6262465559048832</v>
+        <v>0.9458325917745729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8721570204317559</v>
+        <v>0.6076683013820776</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8805546176683567</v>
+        <v>0.9296025918564157</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.868195269052241</v>
+        <v>0.8684649129229933</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.710760498652744</v>
+        <v>0.8684649129229933</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>7.372027285437239</v>
+        <v>13.205068430365719</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.031193024218540363</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.019289814439546627</v>
-      </c>
+        <v>0.02903422731432784</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7218809879022293</v>
+        <v>0.8684649129229933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.835526162587616</v>
+        <v>0.6546720835751596</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8350349770947132</v>
+        <v>0.9666029824043367</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7954803670311348</v>
+        <v>0.9353645945807627</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6278788720693734</v>
+        <v>0.9353645945807627</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.061891074777353</v>
+        <v>28.942793458594824</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03885079289385008</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.018867991990555808</v>
-      </c>
+        <v>0.01943933304513643</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5666467788688208</v>
+        <v>0.9353645945807626</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8966994382022472</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.9008320187816399</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8877418997326776</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.7517357794636074</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>9.083899941434513</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02386458754528819</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012667587236424659</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7852070532987566</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>56.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9329364235414814</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9617438200225352</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9351396449808955</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9136936445166433</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3705909636481472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>56.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.9168253985482093</v>
+        <v>0.9888415048756718</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.916741285533512</v>
+        <v>0.9882817699249316</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.9126960244604918</v>
+        <v>0.9865434411148924</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.8400820686868118</v>
+        <v>0.9650774505151816</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2142857142857144</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.4233671437735331</v>
+        <v>1.3206649250115807</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>56.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8548022992568118</v>
+        <v>0.9815613135548812</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8443421987735592</v>
+        <v>0.9653344561800538</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7816519196219338</v>
+        <v>0.9455214565752688</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7251909131476578</v>
+        <v>0.9393263114051211</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8035714285714284</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.469936830518334</v>
+        <v>1.3749852419514965</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>56.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.9057625877950228</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.9156723049668266</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.9052066382937364</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.8408618479548484</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3392857142857144</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1797809614005121</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>56.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8073963310214644</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8090777951653866</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7185296983625724</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6551350951823867</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7857142857142856</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.410535497465551</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.07142857142857142</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.10714285714285714</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.0</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3392857142857143</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.32142857142857145</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.16071428571428573</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.19642857142857142</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.44642857142857145</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.375</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.30357142857142855</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8329754536651088</v>
+        <v>0.7275504637206764</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8441321945571889</v>
+        <v>0.847206003068435</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7303016751416509</v>
+        <v>0.8043411493032612</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7303016751416509</v>
+        <v>0.6489076240366</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.415693075032778</v>
+        <v>5.544759742412458</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.04255259817761598</v>
+        <v>0.032702549816004636</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.5625</v>
+        <v>2.005952380952381</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3884671076733899</v>
+        <v>0.9959332893739002</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.730301675141651</v>
+        <v>0.6795838116498673</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.730301675141651</v>
+        <v>0.8329754536651088</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.730301675141651</v>
+        <v>0.8441321945571889</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5333405367147013</v>
+        <v>0.7303016751416509</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.730301675141651</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.730301675141651</v>
-      </c>
+        <v>0.7303016751416509</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.415693075032778</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.04255259817761598</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.730301675141651</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5333405367147013</v>
+        <v>0.3276923076923077</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.730301675141651</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5333405367147013</v>
-      </c>
+        <v>0.698626140210796</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5368373853182816</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5368373853182815</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.3181378129458556</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.05642794415182644</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.730301675141651</v>
+        <v>0.5368373853182816</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.46381447421031585</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8092288183967518</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6795838116498671</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6795838116498674</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>4.241881879621243</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.04899174031418043</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6795838116498673</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>56.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9138027452885082</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9301348491325467</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7948717543907169</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7303016751416512</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.5892857142857144</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3318037763504422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9448084559774437</v>
+        <v>0.7040340466894918</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9301348491325467</v>
+        <v>0.8441781635955059</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7948717543907169</v>
+        <v>0.7142166308556918</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7303016751416512</v>
+        <v>0.6451067259661969</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.31209389196617965</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>56.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9202972714143297</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9178637650181076</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8745741128128678</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7715998382736813</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.5892857142857144</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3318037763504422</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>56.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9342040031096093</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8634953010252274</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7659241164716797</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7305072371211601</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.5357142857142856</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6510523995240205</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.10714285714285714</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16071428571428573</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.03571428571428571</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.42857142857142855</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.26785714285714285</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.0</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.10714285714285714</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.17857142857142858</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.30357142857142855</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.08928571428571429</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.125</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.19642857142857142</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9038791774910837</v>
+        <v>0.7545795881215156</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.906643064652856</v>
+        <v>0.8820979033466005</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.82922880474069</v>
+        <v>0.8438653072027931</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8292288047406899</v>
+        <v>0.7137845203342922</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.711576984415142</v>
+        <v>7.481613375712318</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.025240157036332932</v>
+        <v>0.02390006670937148</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.9196428571428572</v>
+        <v>2.6488095238095237</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.3577280009911135</v>
+        <v>0.9752899446782357</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8292288047406899</v>
+        <v>0.724158941352005</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.82922880474069</v>
+        <v>0.8794264610036935</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.82922880474069</v>
+        <v>0.8796817734366764</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6876204106116734</v>
+        <v>0.7852070532987567</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.82922880474069</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.82922880474069</v>
-      </c>
+        <v>0.7852070532987567</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>7.3112927156859175</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.0321811553991852</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.82922880474069</v>
+        <v>0.7852070532987566</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6876204106116734</v>
+        <v>0.39780553285864384</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.82922880474069</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6876204106116734</v>
-      </c>
+        <v>0.8400141355693731</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.7241589413520049</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.7241589413520049</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>5.250552219465739</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03928523845752751</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.82922880474069</v>
+        <v>0.724158941352005</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3651115618661258</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7745004672612295</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6319875663521151</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6319875663521148</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.4345989894287183</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.04767178526519214</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.631987566352115</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>56.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9609446729840294</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9563547471364091</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8708757705184946</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8292288047406899</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0535714285714284</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.4944703270528854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9515158691456238</v>
+        <v>0.7600776725646761</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9563547471364092</v>
+        <v>0.8730836781614886</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8708757705184947</v>
+        <v>0.7628068540082725</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8292288047406898</v>
+        <v>0.7184811600819262</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.7857142857142858</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3445416348303267</v>
+        <v>0.259870097418821</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>56.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.937091100069434</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8957054081553593</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8237832919413376</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7905351047779837</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.4233671437735331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>56.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.948696341030032</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9298600427856654</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.892446740177612</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.8159751720193457</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.8035714285714284</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.469936830518334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.21428571428571427</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.19642857142857142</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.16071428571428573</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.25</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.25</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.30357142857142855</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.125</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.44642857142857145</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9717566016073478</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.972162349189543</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9458325917745729</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>34.92257144142197</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.007490821563618821</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.5267857142857143</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.3294552638961938</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9458325917745729</v>
+      <c r="A6" t="n" s="491">
+        <v>0.7291476546815112</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.7291813719397859</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5737887026827846</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5737887026827844</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.6925081821833152</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.07238048136686757</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.6964285714285714</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.333752639696021</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5737887026827845</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.894599291663006</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.945832591774573</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.3292334753263929</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5737887026827845</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.894599291663006</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.894599291663006</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.945832591774573</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.3292334753263929</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.3292334753263929</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5737887026827845</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>56.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9858063115176091</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.986365193975987</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9592788654602942</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.3206649250115807</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8885154033816531</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8870706574683846</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6719457485575667</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4464285714285714</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5126093391841176</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>56.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9869129267090055</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9863651939759871</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9592788654602943</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.945832591774573</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.5178571428571429</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.3749852419514965</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8856171703576243</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8870706574683846</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.671945748557567</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5737887026827845</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>1.9464285714285714</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4944703270528854</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.25</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.125</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.7291476546815112</v>
+        <v>0.9038791774910837</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.7291813719397859</v>
+        <v>0.906643064652856</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5737887026827846</v>
+        <v>0.82922880474069</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5737887026827844</v>
+        <v>0.8292288047406899</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.6925081821833152</v>
+        <v>9.711576984415142</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.07238048136686757</v>
+        <v>0.025240157036332932</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.6964285714285714</v>
+        <v>1.9196428571428572</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.333752639696021</v>
+        <v>1.3577280009911135</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5737887026827845</v>
+        <v>0.8292288047406899</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.3292334753263929</v>
+        <v>0.6876204106116734</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.3292334753263929</v>
+        <v>0.6876204106116734</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.3292334753263929</v>
+        <v>0.6876204106116734</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5737887026827845</v>
+        <v>0.82922880474069</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>56.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8885154033816531</v>
+        <v>0.9609446729840294</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8870706574683846</v>
+        <v>0.9563547471364091</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6719457485575667</v>
+        <v>0.8708757705184946</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5737887026827845</v>
+        <v>0.8292288047406899</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4464285714285714</v>
+        <v>2.0535714285714284</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5126093391841176</v>
+        <v>1.4944703270528854</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>56.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8856171703576243</v>
+        <v>0.9515158691456238</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8870706574683846</v>
+        <v>0.9563547471364092</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.671945748557567</v>
+        <v>0.8708757705184947</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5737887026827845</v>
+        <v>0.8292288047406898</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>1.9464285714285714</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4944703270528854</v>
+        <v>1.3445416348303267</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.42857142857142855</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C23" t="n" s="684">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="D23" t="n" s="685">
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="E23" t="n" s="686">
         <v>0.16071428571428573</v>
       </c>
-      <c r="D23" t="n" s="685">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E23" t="n" s="686">
+      <c r="F23" t="n" s="687">
         <v>0.25</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.10714285714285714</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,19 +7424,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
+        <v>0.25</v>
+      </c>
+      <c r="C24" t="n" s="684">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D24" t="n" s="685">
         <v>0.30357142857142855</v>
       </c>
-      <c r="C24" t="n" s="684">
-        <v>0.08928571428571429</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.08928571428571429</v>
-      </c>
       <c r="E24" t="n" s="686">
-        <v>0.39285714285714285</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="F24" t="n" s="687">
         <v>0.125</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.84896446952316</v>
+        <v>0.8305493506236781</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8503152499498579</v>
+        <v>0.850694598176719</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9331073106644053</v>
+        <v>0.9331722451451167</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3622736641446663</v>
+        <v>0.3629632428241933</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>5.680707284242483</v>
+        <v>5.697681314863662</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.03125471007379832</v>
+        <v>0.03189869671818339</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.242857142857143</v>
+        <v>1.6392857142857142</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.9152957083731104</v>
+        <v>0.8105393426441594</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.33709608852027767</v>
+        <v>0.3441163144157126</v>
       </c>
     </row>
     <row r="7">
@@ -7421,260 +7592,260 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8286156168029625</v>
+        <v>0.8271797792139263</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8296008763764805</v>
+        <v>0.8372695246980961</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.9081544636409496</v>
+        <v>0.9190738155944205</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.35105083683059213</v>
+        <v>0.3637386358794562</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.868574783338698</v>
+        <v>5.14513045663243</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.03534349110550016</v>
+        <v>0.03378511571414179</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03921407076424975</v>
+        <v>0.04438245160261785</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.3391117397005394</v>
+        <v>0.3450774533041546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8287627659419481</v>
+        <v>0.8054980992844365</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8303081618575264</v>
+        <v>0.827171339608569</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9215275365583516</v>
+        <v>0.9085476555849248</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3521933993367421</v>
+        <v>0.347167452975073</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.8930353454029865</v>
+        <v>4.786077365496844</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.035616160756791776</v>
+        <v>0.0358589149271971</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.046057791925576116</v>
+        <v>0.04722779037929104</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.3300362479053457</v>
+        <v>0.3391117397005394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.833834122247376</v>
+        <v>0.8085690676044263</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8346142948871</v>
+        <v>0.8300685437423811</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9102996540053615</v>
+        <v>0.9154986986743523</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.3592697058566501</v>
+        <v>0.3518057018548943</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>5.0464717873733616</v>
+        <v>4.884725653642278</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.03439211827624999</v>
+        <v>0.035289107367414765</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03858701917163651</v>
+        <v>0.04973568984841415</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.3450774533041546</v>
+        <v>0.34060620146799514</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8423146295344397</v>
+        <v>0.8342479633504662</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8430114318228924</v>
+        <v>0.8530026268651333</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9281545819666412</v>
+        <v>0.93075437586185</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.37369042886759185</v>
+        <v>0.39200866952958674</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>5.369890569814252</v>
+        <v>5.802842654082825</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.032823154004161664</v>
+        <v>0.032970805459552194</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.043709538084699885</v>
+        <v>0.05131163730601434</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.3450774533041546</v>
+        <v>0.35482480728387034</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8285353153320223</v>
+        <v>0.8210122533073086</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8303924968265847</v>
+        <v>0.8428850363761983</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.9126042022116378</v>
+        <v>0.9244293594130515</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.35233000173190976</v>
+        <v>0.37346700151475276</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.89596557516414</v>
+        <v>5.364766136435063</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.03589704739395655</v>
+        <v>0.03289083153175613</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04966765432247877</v>
+        <v>0.05700074313977521</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.31607278810292844</v>
+        <v>0.34958860149011606</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8297088553530751</v>
+        <v>0.8158290198697612</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8319854595389088</v>
+        <v>0.8365628149856688</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9111853618169901</v>
+        <v>0.9174463756102932</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.35492498863268285</v>
+        <v>0.3625411608007926</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.951865816230232</v>
+        <v>5.118558637144379</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.0355010868338266</v>
+        <v>0.0338178955512415</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04815644074139386</v>
+        <v>0.058897686848940214</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.3111902024675325</v>
+        <v>0.34958860149011606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8375616817955847</v>
+        <v>0.8156946949883589</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8395142588121672</v>
+        <v>0.8397229440027751</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.901427762912281</v>
+        <v>0.929038133938574</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3675815188348656</v>
+        <v>0.36794185089097364</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>5.23108316413979</v>
+        <v>5.239196207954519</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.033421984830282754</v>
+        <v>0.034668605553745256</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.04014748293129174</v>
+        <v>0.06868581806086044</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.3280205967250839</v>
+        <v>0.34262185264825695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8382113934073262</v>
+        <v>0.8135351245749923</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8395479797241451</v>
+        <v>0.8403389104167092</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.9030413316715509</v>
+        <v>0.9303087154679323</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.36763970829179254</v>
+        <v>0.3690085074706131</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>5.232392700825855</v>
+        <v>5.263266789735436</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.0333116919632023</v>
+        <v>0.03522085945491981</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.04177886071949612</v>
+        <v>0.06837414126841815</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.3280205967250839</v>
+        <v>0.3430618021238928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8434505683535183</v>
+        <v>0.803002349833958</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8447799577913694</v>
+        <v>0.8307071465704071</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9301260138558896</v>
+        <v>0.9121681246674684</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3768377661056139</v>
+        <v>0.3528403497101686</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>5.442467002140771</v>
+        <v>4.906923888053491</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.03275016503026509</v>
+        <v>0.037252992614339016</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.050028766214787884</v>
+        <v>0.06547474094756102</v>
       </c>
       <c r="I19" t="n" s="753">
         <v>0.3391117397005394</v>
@@ -7682,31 +7853,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8375579035028365</v>
+        <v>0.7999133597379846</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8393035849622229</v>
+        <v>0.8283935558683746</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9317518435476377</v>
+        <v>0.9104796072051006</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3672182869582224</v>
+        <v>0.34911309761562237</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.222914181159025</v>
+        <v>4.827286994146796</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.034029323795056694</v>
+        <v>0.037818128213222196</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05380477209148554</v>
+        <v>0.06513306717292232</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.3280205967250839</v>
+        <v>0.32716393107838404</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7087621435185555</v>
+        <v>0.6141600848512464</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7146201877077736</v>
+        <v>0.6489239948003935</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7159306044423346</v>
+        <v>0.6554859284167815</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6171129778852431</v>
+        <v>0.5844590380146518</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.2142857142857144</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.4233671437735331</v>
+        <v>0.3705909636481472</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.7090879433793902</v>
+        <v>0.708646648456659</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.7083185407129563</v>
+        <v>0.7402535885806526</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6826168444018101</v>
+        <v>0.7593691685984103</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.6139854626763921</v>
+        <v>0.6117997463706532</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.8035714285714284</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.469936830518334</v>
+        <v>1.3206649250115807</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6564172669900799</v>
+        <v>0.6878173616321114</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6692901414126483</v>
+        <v>0.7146905742508928</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.666274813667068</v>
+        <v>0.7256027582087629</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5730558157246506</v>
+        <v>0.58100847898907</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3392857142857144</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1797809614005121</v>
+        <v>1.3749852419514965</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5818246447316762</v>
+        <v>0.43652801785687795</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.589754618991907</v>
+        <v>0.49311793651726693</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5455645272177786</v>
+        <v>0.44688167318889543</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.46545447772026594</v>
+        <v>0.4100323553921143</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7857142857142856</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.410535497465551</v>
+        <v>0.259870097418821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.7120685680764645</v>
+        <v>0.5993165698407894</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.7075651289141623</v>
+        <v>0.595307563991314</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6903520625710161</v>
+        <v>0.5641805422311612</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.6158306820261842</v>
+        <v>0.4678089213323657</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.0535714285714284</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.4944703270528854</v>
+        <v>1.4233671437735331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6975495344667016</v>
+        <v>0.6444773474560795</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6932528341234386</v>
+        <v>0.655523699427841</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6785065578936028</v>
+        <v>0.6366607609767045</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.609342645819647</v>
+        <v>0.518069589843451</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.7857142857142858</v>
+        <v>3.8035714285714284</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3445416348303267</v>
+        <v>1.469936830518334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6199133915124416</v>
+        <v>0.6512947461816787</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.623447475480831</v>
+        <v>0.6257586045088269</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6320857375236282</v>
+        <v>0.5637060383958488</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5183553866414611</v>
+        <v>0.5222278110986618</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.5357142857142857</v>
+        <v>1.4464285714285714</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.3206649250115807</v>
+        <v>1.5126093391841176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6177126915700766</v>
+        <v>0.6637027336881005</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6231265395019242</v>
+        <v>0.6198798864545021</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6310353612075255</v>
+        <v>0.5528839026885592</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5109931372974956</v>
+        <v>0.5395369401738471</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.5178571428571429</v>
+        <v>1.9464285714285714</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.3749852419514965</v>
+        <v>1.4944703270528854</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5860870050560366</v>
+        <v>0.7337128920110679</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5723959115768626</v>
+        <v>0.7089882674890247</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.5084750931477541</v>
+        <v>0.6911427341529482</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.46092065393663934</v>
+        <v>0.6287102534844964</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4464285714285714</v>
+        <v>2.0535714285714284</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5126093391841176</v>
+        <v>1.4944703270528854</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>56.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.6357348175786675</v>
+        <v>0.7502839208270033</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6254508311410686</v>
+        <v>0.7295304594179717</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5542905543025823</v>
+        <v>0.7140288566249403</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.522042178393513</v>
+        <v>0.662299446886319</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>1.9464285714285714</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4944703270528854</v>
+        <v>1.3445416348303267</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.07142857142857142</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.10714285714285714</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3392857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.32142857142857145</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.16071428571428573</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.07142857142857142</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C40" t="n" s="798">
         <v>0.017857142857142856</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.05357142857142857</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.19642857142857142</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21428571428571427</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.44642857142857145</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="C41" t="n" s="798">
         <v>0.05357142857142857</v>
       </c>
-      <c r="C41" t="n" s="798">
+      <c r="D41" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.017857142857142856</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.03571428571428571</v>
       </c>
-      <c r="D41" t="n" s="799">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.375</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.39285714285714285</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.10714285714285714</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.05357142857142857</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.017857142857142856</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.05357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.30357142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.10714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4642857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.21428571428571427</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.19642857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
+        <v>0.3392857142857143</v>
+      </c>
+      <c r="F43" t="n" s="801">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="G43" t="n" s="802">
         <v>0.16071428571428573</v>
-      </c>
-      <c r="F43" t="n" s="801">
-        <v>0.25</v>
-      </c>
-      <c r="G43" t="n" s="802">
-        <v>0.0</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.25</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.14285714285714285</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.30357142857142855</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.17857142857142858</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.125</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.44642857142857145</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8392857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.017857142857142856</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.017857142857142856</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.07142857142857142</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.017857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8392857142857143</v>
+        <v>0.30357142857142855</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.05357142857142857</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="D46" t="n" s="799">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.125</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.05357142857142857</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.42857142857142855</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C47" t="n" s="798">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="D47" t="n" s="799">
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="E47" t="n" s="800">
         <v>0.16071428571428573</v>
       </c>
-      <c r="D47" t="n" s="799">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="E47" t="n" s="800">
+      <c r="F47" t="n" s="801">
         <v>0.25</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.10714285714285714</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,19 +8454,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
+        <v>0.25</v>
+      </c>
+      <c r="C48" t="n" s="798">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D48" t="n" s="799">
         <v>0.30357142857142855</v>
       </c>
-      <c r="C48" t="n" s="798">
-        <v>0.08928571428571429</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.08928571428571429</v>
-      </c>
       <c r="E48" t="n" s="800">
-        <v>0.39285714285714285</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="F48" t="n" s="801">
         <v>0.125</v>
